--- a/naukri_final.xlsx
+++ b/naukri_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior Python Developer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Empower IT Systems Pvt Ltd</t>
+          <t>Carta Healthcare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>20,00,000 - 30,00,000 PA.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-8 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>automation, appium, Python, communication, IT Skills, Software Development</t>
+          <t>Python, IT Skills, Software Development, Testing, Product Development, Postgresql, Django, Microservices</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L A Consultancy</t>
+          <t>Oracle India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">4-9 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pytorch, GitHub, Jenkins, API, TensorFlow, CV, Splunk, JPA</t>
+          <t>Spring Boot, Web Services, Python, Docker, Linux, Kubernetes, REST, JSON</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Urgent Hiring For Python Developer in Tcs</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Concept Management</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,24 +532,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-5 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IT Skills, Python, HTML, CSS, Javascript, Front End, Django, Postgresql</t>
+          <t>Pyspark, SQL Queries, Python, IT Skills, Django, AWS, Devops</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Python Developer - SQL/JSON</t>
+          <t>Python developer - Immediate joiners (Oct - Joiners)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prime Infosoft</t>
+          <t>Capgemini Technology Services India Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,39 +559,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-5 </t>
+          <t xml:space="preserve">4-7 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>IT Skills, Java, Python, Cloud, RESTful API, Windows OS, REST API programming, Linux</t>
+          <t>Angular, IT Skills, Python, Programming, python programming</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>AWS Python Developers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hucon Solutions</t>
+          <t>Deloitte Consulting India Private Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>2,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">2-7 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ORM, MongoDB, pySpark, RDBMS, HDFS, CSS3, JavaScript, NoSQL</t>
+          <t>Aws Iam, Microservices, Python, S3, Kinesis, Fargate, EC2, API Gateway</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adept Global</t>
+          <t>COLLABERA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,78 +613,78 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-5 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>python, Flask, Mysql DB, communication, API Development, Django, Git, Jira</t>
+          <t>Django, Flask, Python, CI / CD, NoSQL, Jira, REST, unit testing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior Python Developer - Django / Flask</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HIREATEASE CONSULTING PRIVATE LTD</t>
+          <t>BootLabs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10,00,000 - 20,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">6-10 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Python, Data Analytics, object - oriented programming, Artificial Intelligence, Pyramid, Azure, OOP, Django</t>
+          <t>System Design, SOA, ORM, Webservices, relational databases, REST API, RDBMS, Django</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python Developer 1 - 4 yrs Immediate</t>
+          <t>Senior Python Developer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Saasvaap Techies Pvt. Ltd.</t>
+          <t>Aegis Software Pvt Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>5,00,000 - 12,00,000 PA.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-4 </t>
+          <t xml:space="preserve">2-5 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Python, communication, IT Skills, Machine Learning</t>
+          <t>python, Flask, Django, data structures, Git, Apache, TDD, Spark</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Python Developer - ERPNext</t>
+          <t>Senior/Lead Python Developer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L A Consultancy</t>
+          <t>Quadraforce Technologies Private Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,120 +694,120 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">7-11 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IT Skills, Python, HTML, CSS, Javascript, ERPnext, jQuery, Database Schema</t>
+          <t>Django, MS SQL Server, Python, IT Skills, Oracle, MS SQL, Airflow, Unix</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python AWS Developer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apidel Technologies Pvt Ltd</t>
+          <t>Virtusa Consulting Services</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 19,00,000 PA.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-9 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Python, javascript, Pandas, Numpy, IT Skills</t>
+          <t>AWS, Django, Oracle, Python, IT Skills</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HIring For Core Python Developer For a Leading Ibank</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SKILLVENTORY</t>
+          <t>Bhumi Upadhayaya</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>5,00,000 - 7,00,000 PA.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-8 </t>
+          <t xml:space="preserve">0-2 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>algorithms, core python, design patterns, CI/CD, data structures</t>
+          <t>CI / CD, analytical, Computer Vision, Python, IT Skills, DevOps, Algorithms, Django</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hiring || Python developer</t>
+          <t>Software Developer ( Python / Django )</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Stratosphere IT Services Pvt. Ltd.</t>
+          <t>hireXP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>50,000 - 3,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-9 </t>
+          <t xml:space="preserve">0-2 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OOPS, Unix Shell Scripting, Flask, Django, python framework, Python, IT Skills, OOPS Concepts</t>
+          <t>Python Web Framework, Design Patterns, Front - End Technologies, Django, Html5, Object Relational Mapper, Javascript, Orm</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python Developer (6 months To 2 year exp)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Biswas Consultancy</t>
+          <t>aRKe Software Solutions (Sister Concern of Chadha Industries)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3,25,000 - 6,00,000 PA.</t>
+          <t>2,00,000 - 5,00,000 PA.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-4 </t>
+          <t xml:space="preserve">0-2 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Git, Seaborn, Pandas, Databricks, AWS, Numpy, AzureML, Matplotlib</t>
+          <t>ubuntu, Python, ORM, SQL queries, Agile, debugging, Core Python, postgresql</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Machstatz</t>
+          <t>Citylink Technology Solutions Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -829,66 +829,66 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">0-3 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IT Skills, Java, Python, HTML, CSS, Javascript, Front End, Python Developer</t>
+          <t>Object - Oriented concepts, communication, Bootstrap, HTML5, agile, Java, Spring MVC, JavaScript</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior Python Developer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Diverse Lynx</t>
+          <t>Pure Tech Codex Private Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>7,00,000 - 8,00,000 PA.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-5 </t>
+          <t xml:space="preserve">4-5 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Computer science, MS SQL, NoSQL</t>
+          <t>IT Skills, Python, Testing, GIT, Django, Postgresql, Memcached</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior - Python Developer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KoiReader Technologies</t>
+          <t>Global Gene Corp</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5,00,000 - 10,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-5 </t>
+          <t xml:space="preserve">4-9 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Big Data, AWS, Ubuntu, Data Structures, Python Developer, Natural Language Processing</t>
+          <t>Pyramid, R, Django, Artificial Intelligence, Html5, Data Scraping, Machine Learning, Deep Learning</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bitmonksoftware</t>
+          <t>ENCORA INNOVATION LABS INDIA PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OOPs, Python, IT Skills</t>
+          <t>IT Skills, Java, Python, Software Development, Cloud, Elastic Search, Javascript, Rabbitmq</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sahasya Global Solutions</t>
+          <t>IELTSMaterial.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -937,51 +937,51 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-4 </t>
+          <t xml:space="preserve">2-7 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Android, MS SQL, Javascript, Python, HTML, DB Design, CSS, TSQL</t>
+          <t>Team management, Web services, nginx, Django, MySQL, Data Processor, MongoDB, Visa processing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lead Python Developer with B1 Visa</t>
+          <t>Python Developer Python and Pandas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sahasya Global Solutions</t>
+          <t>Quest Global</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>5,00,000 - 10,00,000 PA.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-3 </t>
+          <t xml:space="preserve">4-7 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Testing, Quality Assurance, Cloud, MS SQL, HTML, IT services</t>
+          <t>Pandas, AWS, Azure, ADF, ADLS, Python, IT Skills, Cloud</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AWS Python Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sahasya Global Solutions</t>
+          <t>Wissen Infotech Pvt Ltd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-6 </t>
+          <t xml:space="preserve">3-11 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HTML 5, SDLC, REST API, Middleware, Agile, Lambda, AWS Databases, Unit testing</t>
+          <t>IT Skills, Python, Javascript, Jinja 2, Git, Django, Html5, Object Relational Mapper</t>
         </is>
       </c>
     </row>
@@ -1008,34 +1008,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Innovative e-Solutions Enterprise</t>
+          <t>Wissen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1,00,000 - 4,75,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-5 </t>
+          <t xml:space="preserve">3-11 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Machine Learning, Oracle, Javascript, Pytorch, Django, Html5</t>
+          <t>Mercurial, Flask, Object Relational Mapper, Django, HTML5, Jinja, Git, SVN]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Python Developers</t>
+          <t>Hiring Python Developer- Immediate Joiners</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Renewbuy.com</t>
+          <t>Agiliad Technologies Private Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1045,24 +1045,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-3 </t>
+          <t xml:space="preserve">4-7 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rest, Front end, Web services, MySQL, Schema, Javascript, HTML, Business Executive</t>
+          <t>Python, Git, Mercurial, SVN}}, REST APIs, debugging, Flask, JavaScript</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Python Programming Language Application Developer</t>
+          <t>Required Python Developers @ Tekion-Chennai/Bangalore</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Accenture Solutions Pvt Ltd</t>
+          <t>DataLens Technologies</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1072,51 +1072,51 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-6 </t>
+          <t xml:space="preserve">4-9 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Testing, AWS, Business process, VMware, Data validation, Citrix Administrator</t>
+          <t>written communication, sql, Data - structure, linux, verbal, nosql, Web development, GoLang</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Python Programming Language Application Developer</t>
+          <t>Python Developer | Bangalore</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Accenture Solutions Pvt Ltd</t>
+          <t>Truminds Software Systems Private Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">6-8 </t>
+          <t xml:space="preserve">7-11 </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Python, Communication, ASP NET MVC, HTML5e, object - relational mapping, PL / SQL, Django, Agile</t>
+          <t>Linux, DevOps, ELK stack, AWS, Golang, Python, Docker, Object - Oriented Programming</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Python Programming Language Application Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Accenture Solutions Pvt Ltd</t>
+          <t>COGNITIVECLOUDS SOFTWARE PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1126,51 +1126,51 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-6 </t>
+          <t xml:space="preserve">3-7 </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Business process, MS SQL, Front end, HP data protector, Django, Consulting</t>
+          <t>Python framework, Flask, Django, Python, IT Skills, OOPS, Problem Solving</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Python Programming Language Application Developer</t>
+          <t>Python Developer with Flask</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Accenture Solutions Pvt Ltd</t>
+          <t>UST</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>7,50,000 - 16,00,000 PA.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-6 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Business process, Client handling, Architecture, Django, Consulting, Programming, Database, professional services</t>
+          <t>Flask, API, Pandas, Python, SQL Query development, Redis, API Development, SQL Query</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Python Programming Language Application Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Accenture Solutions Pvt Ltd</t>
+          <t>Tavant Technologies India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1180,24 +1180,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-6 </t>
+          <t xml:space="preserve">4-7 </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Business process, MS SQL, Front end, HP data protector, Django, Consulting, Programming, professional services</t>
+          <t>Microservices, Pandas, HTML, SQLAlchemy, JavaScript, ReactJS, SQL, Python</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Python Programming Language Application Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Accenture Solutions Pvt Ltd</t>
+          <t>Datamar Business Intelligence Pvt Ltd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1207,29 +1207,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-6 </t>
+          <t xml:space="preserve">0-2 </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Business process, Backend, Web services, Front end, Django, Debugging, Consulting, Machine learning</t>
+          <t>web webscraping, Web Crawling, Python, Matplotlib, MS SQL, VB.NET, Tkinter, Pyqt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Python (Django) Developer I ValueCoders India (Vinove Software)</t>
+          <t>Perl and Python developer test automation candidates Required</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Vinove Software and Services India</t>
+          <t>Tech Mahindra Ltd.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8,00,000 - 14,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1239,19 +1239,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Django, Flask, Python, Github, Web Technologies, MySQL, Javascript, PHP</t>
+          <t>Perl Automation, Linux, Object Oriented Programming, Perl, Python, RAID, IT Skills, Automation Testing</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Linux Developer - Python</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Prime Search</t>
+          <t>Hexaware Technologies Ltd.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1261,24 +1261,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-8 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Linux, Regex, Pandas, Tabula, Communication System</t>
+          <t>IT Skills, Java, Python, Angularjs, Javascript, Django, Web Technologies, Require.Js</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Python/Django Developer - Flask/PostgreSQL</t>
+          <t>Python Programming Language Application Developer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>isparrow services Pvt ltd</t>
+          <t>Accenture Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1288,24 +1288,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-4 </t>
+          <t xml:space="preserve">4-6 </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>API, MySql, development, MongoDB, ApacheAWS, JavaScript, Bootstrap, Django</t>
+          <t>communication, PostgreSQL, AWS, Python, IT Skills, Business process, C, Finance</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Python Lead Developer - RDBMS</t>
+          <t>Python Programming Language Application Developer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Axcess consultancy services</t>
+          <t>Accenture Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1315,39 +1315,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-7 </t>
+          <t xml:space="preserve">4-6 </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Python, NoSQL, RDBMS, data science, micro services, Docker, Cloud, IT Skills</t>
+          <t>IT Skills, Python, Business process, MS SQL, Front end, C, HP data protector, Django</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Backend Developer (Python)</t>
+          <t>Python Developer Opening with Tech Mahindra, Chennai</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sapwood Ventures Pvt. Ltd.</t>
+          <t>Tech Mahindra Ltd.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15,00,000 - 25,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">1-2 </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Flask, Javascript, AWS, MySQL, Django, Azure, HTML5, MVC</t>
+          <t>Python, data libraries, SQL programming, IT Skills, Drupal, Wordpress, Programming, PHP</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vanilla Networks Pvt Ltd.</t>
+          <t>whiz.ai</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1369,51 +1369,51 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 </t>
+          <t xml:space="preserve">2-6 </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>performance tuning, JSON, AngularJS, REST, GIT, SOAP, API's, NodeJS</t>
+          <t>Java, Software Development, Front End, Html5, Data Structures, Python Developer, Problem Solving, Orm</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lead Python Developer</t>
+          <t>Hiring For Python Developer(Immediate Join )@ Chennai</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Vanilla Networks Pvt Ltd.</t>
+          <t>Ionixx Technologies Private Limited</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 13,00,000 PA.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-8 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>JS Frameworks, GIT, JSON, REST, performance tuning, SOAP, flask, jQuery</t>
+          <t>IT Skills, Python, Cloud, AWS, Design Principles, GIT, Django, Build</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TS - Python Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Srivango Technologies</t>
+          <t>Stratacent India Private Limited</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-9 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Linux shell scripting, Linux, Unix shell scripts, Shell, Automation, Python</t>
+          <t>IT services, Automation, Managed services, SAS, Healthcare, Life sciences, HTTP, Medical insurance</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TYCHON SOLUTIONS PVT LTD</t>
+          <t>Samcom Technobrains</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1450,24 +1450,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-6 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Django, Machine Learning, Python, Code packaging, CSS3, Flask, Pyramid, Data visualization</t>
+          <t>IT Skills, Python, Testing, Javascript, Object - Relational Mapping, Python Framework, Django, Html5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senior Python Developers/ Architects</t>
+          <t>Fullstack Python Developer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Selligence Solutions Pvt. Ltd.</t>
+          <t>SENECAGLOBAL IT SERVICES PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1477,24 +1477,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">4-8 </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Python, MongoDB, Application Development, MySQL, AWS, IT Skills</t>
+          <t>IT Skills, Python, ElasticSearch, Docker, SQLAlchemy, Fast api, Flask</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Python OpenStack Developer</t>
+          <t>Python Developer (Remote)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Altran Technologies India Private Limited.</t>
+          <t>Infrrd Private Limited</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1504,24 +1504,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">2-5 </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Openstack, Python</t>
+          <t>IT Skills, Python, DevOps, Elastic Search, Architect, Automation, Backend, Version control</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Backend Developer - Python/ Django/ REST API</t>
+          <t>Lead Python Developer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CarbyneTech India</t>
+          <t>LogicPlum</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1531,24 +1531,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-5 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>REST API, Git, Elasticsearch, Django, Microservices Architecture, PostgreSQL, Python, Flask</t>
+          <t>Postgre SQL, Flask, pandas, MySQL, MongoDB, Scikit, Django, Scipy</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Backend Developer - Python/ Django/ REST API</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CarbyneTech India</t>
+          <t>T &amp; A Solutions</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-5 </t>
+          <t xml:space="preserve">1-4 </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>REST API, Git, Elasticsearch, Django, Microservices Architecture, PostgreSQL, Python, Flask</t>
+          <t>Front end, GIT, Django, Debugging, Javascript, SVN, Unit testing, AWS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AWS Developer Python / NodeJS</t>
+          <t>Urgent Requirement For Python Developer position</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CriticalRiver Inc.</t>
+          <t>Incrivelsoft Private Limited</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1585,51 +1585,51 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-7 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Route53 S3, Node JS, Python, Lambda, EC2, SDLC, RDS, ELB</t>
+          <t>API, Python, Flask, IT Skills, Software Development, Communication</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Python Fullstack Developer</t>
+          <t>Urgent opening For Python Developer with CMMi Level 5 Co</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Xoriant Solutions Pvt Ltd</t>
+          <t>Infogen Labs Private Limited</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>50,000 - 3,00,000 PA.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-9 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Django, React.Js, Python, jQuery, Microservices, Waterfall, Agile, oral communication</t>
+          <t>Django, Artificial Intelligence, Cloud, Technical Design, AWS, Design Documents, Technical Architecture, Python</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Python/Django Developer</t>
+          <t>R &amp; Python developer-Mumbai</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SOLULEVER INDIA PVT LIMITED</t>
+          <t>Tech Mahindra Ltd.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1639,24 +1639,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-7 </t>
+          <t xml:space="preserve">4-6 </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Django, Python</t>
+          <t>CSS3, SQL, HTML5, JavaScript, IT Skills, Python, Oracle, Responsiveness</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Python / Django Developer</t>
+          <t>HCL Hiring Python Developers For Chennai Location</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HASHTG SYSTEMS INDIA PRIVATE LIMITED</t>
+          <t>HCL Technologies Ltd</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1666,147 +1666,147 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Django, MySQL, Python, Core, REST, git, Mongo DB, Javascript</t>
+          <t>Unix, Robot Framework, Python</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Opening For Python Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sixsigma Softsolutions Private Limited</t>
+          <t>Opera Solutions India Private Limited</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2,00,000 - 6,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-6 </t>
+          <t xml:space="preserve">3-7 </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Python, IT Skills</t>
+          <t>IT Skills, Python, Machine Learning, Artificial Intelligence, Cloud, Big Data, Jenkins, Docker</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python Developer with Cloud Technologies</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amrutha Business Solutions</t>
+          <t>Xoriant Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>13,00,000 - 23,00,000 PA.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-3 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Raspberry Pi, Python, C programming, IT Skills, Raspberry pI programmer, Django, Python Programmer</t>
+          <t>Github, Bitbucket, Python, Azure, AWS, Google Cloud</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Python Developer (Immediate Joiner)</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Corporate Destination</t>
+          <t>RIGVED TECHNOLOGIES PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8,00,000 - 14,00,000 PA.</t>
+          <t>7,00,000 - 17,00,000 PA.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">8-12 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Devops, Python, Blue Prism, Agile, IT Skills, RPA, Artificial Intelligence, Natural Language Processing</t>
+          <t>Django, Python, SQL, CSS, GIT, MySQL, Javascript, Tkinter</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Senior Python Backend Developer - Work From Home</t>
+          <t>Urgent Hiring | Python Developer | Automation Engineer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vamstar Limited</t>
+          <t>TECHNIVORUS TECHNOLOGY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12,00,000 - 22,00,000 PA.</t>
+          <t>6,00,000 - 12,00,000 PA.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">7-12 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Spark, microservices, data engineering, ELT, Kafka, NoSQL, Flink, Azure</t>
+          <t>Robot Framework, Automation Engineering, Python, Rpa, Front End, NoSQL, Javascript, Go</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Python Developer - Flash/Data Structure</t>
+          <t>Python Developer | Automation Engineer</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Leonard Consultancy Services LLP</t>
+          <t>TECHNIVORUS TECHNOLOGY PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>6,00,000 - 12,00,000 PA.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-8 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Software Development, Testing, DevOps, AWS, Software Development Life Cycle, Postgresql</t>
+          <t>Robot Framework, Automation Engineering, Python, Rpa, Front End, NoSQL, Javascript, Go</t>
         </is>
       </c>
     </row>
@@ -1818,39 +1818,39 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Alpha HR</t>
+          <t>YesorYes Private Limited</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-7 </t>
+          <t xml:space="preserve">1-4 </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Software development, IT Skills, Python, coding, design, softwear development, resource utilization</t>
+          <t>Django, Python, Flask, Pandora, Database Handling, Data Structures, OOPS, ORM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Junior Python Developer</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bigshyft Hiring for NextGen Invent Corporation</t>
+          <t>SENECAGLOBAL IT SERVICES PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8,00,000 - 14,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1860,19 +1860,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Django, MySQL, Hadoop, Oracle, Python</t>
+          <t>Git, docker, UX, Data Modeling, Angular, REST, communication, PostgreSQL</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Python Developer - Django/ Flask</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Angel and Genie</t>
+          <t>Think360.ai</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1882,51 +1882,51 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-4 </t>
+          <t xml:space="preserve">0-1 </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>REST API, Java, ElasticSearch, Microservices Architecture, Django, Node.js, Python, Flask</t>
+          <t>communication, Linux, Flask, SVN, Django, Git, SQL, Mercurial</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Senior &amp; Junior Python/Django Developer - Ahmedabad</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bluehole Pvt Ltd</t>
+          <t>White Squire Technologies LLP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4,50,000 - 8,00,000 PA.</t>
+          <t>3,00,000 - 8,00,000 PA.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-7 </t>
+          <t xml:space="preserve">0-5 </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>HTTP, Postgres, React js, AWS, MongoDB, MySQL, Django, JSON</t>
+          <t>Postgresql, Socket Programming, Flask, IT Skills, Python, Node.js, Unix, C++</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Python Developer - Data Analysis - SQL/Flask/Django</t>
+          <t>Job Opening - Python Developer - Gurugram</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GA Staffing Solutions</t>
+          <t>XYZ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1936,24 +1936,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-8 </t>
+          <t xml:space="preserve">0-2 </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>bash, PL / SQL, linux, verbal, written communication, Django, debugging, OOPs</t>
+          <t>IT Skills, Python, Tensorflow, Django, Deep Learning</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Python Developer - Django/Flask</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>V Employment Solutions</t>
+          <t>Oracle India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1968,19 +1968,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Javascript, AWS, Pyramid, Front End, Django, Html5</t>
+          <t>IT Skills, Python, Cloud, Oracle, Javascript, Jenkins, AWS, Rest</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Python Developer - Django/Multithreading</t>
+          <t>Hiring For Python Developer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TalPro</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1990,56 +1990,56 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-8 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Modular Programming, Visual Studio Code, Python, REST API, Django, Multi - threaded Programming, unit test, Coverage py</t>
+          <t>API, Angular, troubleshooting, Flask, SQL, Javascript, pandas, MySQL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Python Developer - Webservices/restful</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Career Infosystem</t>
+          <t>TEKsystems</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 9,00,000 PA.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">6-10 </t>
+          <t xml:space="preserve">4-9 </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ruby, RabbitMQ, Java, Redis, ActiveMQ, ZeroMQ, git, MSSQL</t>
+          <t>Django, MySQL, Python, Java, Multithreading, Javascript, HTML, Spring</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Python Developer - Pandas/Numpy</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GA Staffing Solutions</t>
+          <t>TEKsystems</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 9,00,000 PA.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2049,19 +2049,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>RDBMS, Flask, Pandas, MySQL, RESTful Web services, Linux OS, MongoDB, PostgreSQL</t>
+          <t>Django, MySQL, Python, Java, Multithreading, Javascript, HTML, Spring</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lead Python Developer - Django/Flask</t>
+          <t>Python developer</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>V Employment Solutions</t>
+          <t>Stefanini</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2071,24 +2071,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-10 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Python Architect, Solution Integration, Django, System Integration, Python, Flask</t>
+          <t>Computer science, Interpersonal skills, GIT, Django, Debugging, Machine learning, Software product development, JIRA</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Python Developer - Linux/django</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Huquo Consulting Pvt. Ltd</t>
+          <t>Linarc Inc</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-7 </t>
+          <t xml:space="preserve">2-5 </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Python, ORM, SQLAlchemy, Object Relational Mapper, Linux OS, Knockout Js, CSS3, Rabbit MQ</t>
+          <t>Jquery, MVC architecture, Backbone, management, Node Js, EmberJs, Knockout, Communication</t>
         </is>
       </c>
     </row>
@@ -2115,34 +2115,34 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SHAVISH HR AND DIGITAL MARKETING PRIVATE LIMITED</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,00,000 - 13,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-7 </t>
+          <t xml:space="preserve">5-9 </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Amazon Web Services, REST API, ORM, Flask, Object Relational Mapper, Apache Airflow, AWS, Django</t>
+          <t>Spark, Shell scripting, OOPS, debugging, Unix Shell Scripting, python, coding, Django</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Python Developer - Django Framework</t>
+          <t>Hiring For Python developer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Huquo Consulting Pvt. Ltd</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-6 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Linux OS, Django, ORM, Python, Flask</t>
+          <t>Pyspark, SQL Queries, Python, SQL, IT Skills, Language Skills</t>
         </is>
       </c>
     </row>
@@ -2169,22 +2169,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Corporate Stalwarts</t>
+          <t>COLLABERA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3,00,000 - 7,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-7 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Data Structure, Bootstrap, Web Development, Machine Learning, Object Oriented development, MySQL, JQuery, RDBMS</t>
+          <t>NoSQL, Agile, Flask, NLP, OOPS, pytest, Image intelligence, unit testing</t>
         </is>
       </c>
     </row>
@@ -2196,61 +2196,61 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ascentiant Business Solutions</t>
+          <t>StarQuik, a TATA Enterprise</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3,00,000 - 6,00,000 PA.</t>
+          <t>8,00,000 - 12,00,000 PA.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-8 </t>
+          <t xml:space="preserve">2-7 </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Django, ORM, Python, Object Relational Mapper, IT Skills, USER AUTHENTICATION, Javascript</t>
+          <t>Django, odoo, Python, Flask</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Python Developer - Django/flask</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Career Infosystem</t>
+          <t>StarQuik, a TATA Enterprise</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>8,00,000 - 12,00,000 PA.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">6-8 </t>
+          <t xml:space="preserve">2-7 </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>GIT, Front End, Django, Web Technologies, Javascript, SVN, ORM, VS</t>
+          <t>Django, odoo, Python, Flask</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Python Developer - Data Structure &amp; Algorithm</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Humanace</t>
+          <t>Cyient Limited</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-7 </t>
+          <t xml:space="preserve">11-17 </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IT Skills, Python, REST API, Git, Parse Tree, Mathematical Algorithms, Abstract Syntax Tree, Algorithm</t>
+          <t>Python, C programming, SVN, Bugzilla, automation development, Git, communication, Telecom</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Alpha HR</t>
+          <t>Capgemini Technology Services India Limited</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2287,24 +2287,24 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">6-11 </t>
+          <t xml:space="preserve">2-5 </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Software Development, AWS, Architecture, Postgresql, Lambda Services, Redis</t>
+          <t>Data Preparation, Django, Python, IT Skills</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Tcs Hiring For Python Developer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Isparrow HR Solutions</t>
+          <t>Tata Consultancy Services Ltd.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2314,24 +2314,24 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Django framework, Python Developer, JavaScript, HTML5, CSS3</t>
+          <t>Hadoop, Unix Shell Scripting, Python, Flask, ORM, Spark, Django, analytical</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Python Developer - Backend Architecture</t>
+          <t>Senior Python Developer - AWS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Talpro</t>
+          <t>thinkAPPS Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2341,29 +2341,29 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 </t>
+          <t xml:space="preserve">5-9 </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MySQL, SaaS, RESTful Webservices, Backend Architecture, JSON architectures, Python, Linux Git, OAuth</t>
+          <t>Elastic Search, Apache Airflow, Jenkins, CICD, Terraform, AWS Services, CloudFormation, Python</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Sr. Python Developer - CES</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SP Staffing Services Private Limited</t>
+          <t>CES Ltd.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6,00,000 - 15,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2373,19 +2373,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Data Science, Python, NLP, Flask, Django, Python AI, ML, IT Skills</t>
+          <t>IT Skills, Python, Rest, Algorithms, RDBMS, TDD, Data Structures, JSON</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>urgent requirement - who Can able To join in 15 days -Python Developer</t>
+          <t>Senior Python Developer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tekskills India Private Limited</t>
+          <t>BEO Software Pvt Ltd</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2395,51 +2395,51 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">5-7 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Java, GIT, Continuous Integration, Kafka, SQL Queries, Gradle, Devops, Microservices</t>
+          <t>communication, object - oriented programming, REST, Django, SQL, Python, HTTP, IT Skills</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Urgent Job Opening | Python Developer | Eminence Core Solutions</t>
+          <t>Senior Python Developer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EMINENCE CORE SOLUTIONS LLP</t>
+          <t>Carta Healthcare</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>20,00,000 - 30,00,000 PA.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-5 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>python, Django, IT Skills, Java, Testing, Javascript, AWS, angular</t>
+          <t>Python, IT Skills, Software Development, Testing, Product Development, Postgresql, Django, Microservices</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Python Developer - Django/Flask</t>
+          <t>Python Developer - PyQt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>All About HR Solutions</t>
+          <t>Valuable Consulting</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2449,78 +2449,78 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-5 </t>
+          <t xml:space="preserve">5-7 </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>jQuery, SOA, Web2py, Django, PostgreSQL, Javascript, MariaDB, Python</t>
+          <t>ALM, Unit Testing, Design Patterns, Clearcase, OOPS, DOORS, Python Developer, Pyqt</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python Developer - Django/Flask</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HASHTAG GLOBAL SOLUTIONS</t>
+          <t>Prime Infosoft</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6,00,000 - 16,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">3-8 </t>
+          <t xml:space="preserve">4-7 </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Django, MySQL, Python, object - relational mapping ( ORM, RESTful APIs, API framework, git, relational database</t>
+          <t>REST API, SOA, RDBMS, Django, Microservices Architecture, Javascript, ORM, Webservices</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Lead Python Developer</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BMS Consulting Services</t>
+          <t>Bigshyft Hiring for Delivery Solutions</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3,00,000 - 3,50,000 PA.</t>
+          <t>7,00,000 - 17,00,000 PA.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-2 </t>
+          <t xml:space="preserve">2-3 </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Testing, Machine Learning, HTML, CSS, Web Technologies, Weblogic</t>
+          <t>Agile, Microservices, Python, Flask</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AWS Python Developer</t>
+          <t>Python Developer - Django/Flask</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AddRec Solutions Pvt.Ltd.</t>
+          <t>Talenture Management Consulting</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2530,24 +2530,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-9 </t>
+          <t xml:space="preserve">6-8 </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AWS, Python, AWS services, Python frameworks, s3, lambda, RDS, cloudwatch</t>
+          <t>SQLALchemy, PostgreSQL, numpy, Flask, Django, pandas, Scikit, Python</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Python Developer (Fullstack)-- Leading Financial Services Bank</t>
+          <t>Python Developer @MNC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SKILLVENTORY</t>
+          <t>MAC Consultant</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2557,24 +2557,24 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">2-6 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>python, Financial Services, VBA, Finance, Banking, Web development, NOSQL, SQL</t>
+          <t>Django, ORM, Python, Flask Framework, Javascript, Object Relational Mapper, HTML5, Jinja</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Python Developer - Urgent Hiring</t>
+          <t>Python Developer @MNC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>OpsMx</t>
+          <t>MAC Consultant</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2584,51 +2584,51 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">4-7 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jenkins, Python, Scripting, analytical, CI / CD, git, IT Skills</t>
+          <t>Django, ORM, Python, Javascript, CSS, Flask Framework, HTML5, Jinja</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aws Python Developer with 0-4 yrs</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Finnoscience</t>
+          <t>Karnataka Consultant Plus</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1,00,000 - 5,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-4 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Python, AWS Services, Docker, Jenkins, IT Skills, AWS</t>
+          <t>JAVA, python</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python Programming Language Application Developer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Teplar Solutions</t>
+          <t>Accenture Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2638,51 +2638,51 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-4 </t>
+          <t xml:space="preserve">4-6 </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Front end, GIT, Django, Debugging, Javascript, Customer support, Business Development Executive, Analytics</t>
+          <t>RESTful APIs, Presentation, Web frameworks, Neural networking, communication, ML, Core Python, Python Programming</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python Developer - Permanent Work From Home</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Innvonix Technologies LLP</t>
+          <t>Maplelabs Solutions Private Limited</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>5,00,000 - 12,00,000 PA.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-3 </t>
+          <t xml:space="preserve">2-4 </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NodeJs, Python, AngularJS, Pyramid, Bots, CSS3, ReactJs, SASS</t>
+          <t>Python, IT Skills, Cloud, Elastic Search, Big Data, Linux, OOPS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Python developer</t>
+          <t>Job | Python Developers/Part Time Supports.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">REXCEL IT SERVICES </t>
+          <t>Platinus Technologies Private Limited</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2692,24 +2692,24 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-2 </t>
+          <t xml:space="preserve">8-13 </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Linux, Object oriented analysis and design, Python, Unix, IT services, Station, GIT, C</t>
+          <t>GUI, Python Developers, Microelectronics, IT Skills, Python, Testing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>AWS Python Developer - Django/REST API</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Surya Informatics Solutions Pvt. Ltd.</t>
+          <t>Leuwint Technologies</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2719,24 +2719,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-2 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Javascript, Linux, MySQL, app development, AngularJS, Postgres, AWS, IT Skills</t>
+          <t>REST API, Python, RDS, Unit testing, AWS Lambda, SDLC, AWS Databases, development</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Python Developer - SQL/VMware/Linux OS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wavelabs Technologies Private Limited</t>
+          <t>AppTalent Business Solutions</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Flask, CI / CD, docker, Python, AWS, Django, AKS, Git</t>
+          <t>BMC Release Lifecycle Management, Jenkins, VMware, troubleshooting, IBM Urban Code, Python, REST API, Oracle</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Innvonix Technologies LLP</t>
+          <t>Allegis Services India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2773,39 +2773,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-4 </t>
+          <t xml:space="preserve">4-6 </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NodeJs, AngularJS, Pyramid, LESS, object - relational mapping ( ORM, Flask, ReactJs, front - end technologies</t>
+          <t>Docker, MongoDB, Virtualization, Python</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jr. Python Developer</t>
+          <t>H1B Visa- Python Developer</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Orbit Technical Solutions</t>
+          <t>ANA DATA CONSULTING PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>50,000 PA.</t>
+          <t>95,000 - 100,000 PA.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-2 </t>
+          <t xml:space="preserve">7-12 </t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Software Development, C++, Html5, Javascript, Software Coding, Programming, Languages, Software Design</t>
+          <t>Hibernate, Javascript, Spring Boot, Java EE, Tomcat, Wildfly, J2Ee, Spring Data Jpa</t>
         </is>
       </c>
     </row>
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Boxinall Softech</t>
+          <t>Ajayvision Education Pvt Ltd</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>50,000 PA.</t>
+          <t>7,00,000 - 10,00,000 PA.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">3-6 </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Django framework, PHP, IT Skills, Python, Django</t>
+          <t>Aws Lambda, Django, Python, Docker, IAM, Web Technologies, EBS, Load Balancing</t>
         </is>
       </c>
     </row>
@@ -2844,22 +2844,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Webnexs</t>
+          <t>Bricksteel Enterprises Infotech Pvt.Ltd</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>4,00,000 - 6,00,000 PA.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-6 </t>
+          <t xml:space="preserve">2-4 </t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Object Relational Mapper, Django, Git, Python, Mercurial, ORM, SVN], IT Skills</t>
+          <t>Front End, Django, Dynamo Db, Web Technologies, Rest Api, HP Data Protector, Flask, Python</t>
         </is>
       </c>
     </row>
@@ -2871,88 +2871,88 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VM3 Tech Solutions</t>
+          <t>Radicle Software Private Limited</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>5,00,000 - 12,00,000 PA.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-3 </t>
+          <t xml:space="preserve">2-5 </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Computer science, Backend, XML, Debugging, SEO, Apache, Ajax, Android</t>
+          <t>Python, Node js, multithreading, AWS services, Docker, pattern, server - side technologies, IT Skills</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>CMMi Level 5 company is looking For Python Developer</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CLOUD KEY TECHNOLOGIES</t>
+          <t>BETH SOFT TECHNOLOGIES INDIA PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>10,00,000 - 18,00,000 PA.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-3 </t>
+          <t xml:space="preserve">4-7 </t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Front End, Django, Flask, IT Skills, Python, Javascript, Storage, HP Data Protector</t>
+          <t>GIT, Django, MySQL, Rest Api, Python</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jr. Python Developer</t>
+          <t>Python Developer _ Product Based</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fugetron Corporation</t>
+          <t>A T L A S Systems Pvt LTD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1,75,000 - 2,00,000 PA.</t>
+          <t>Not disclosed</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>IT Skills, Python, Oracle, AWS, Data Transformation, NoSQL, Oracle SQL, Third Party</t>
+          <t>Rabbitmq, CSS, Front End, Typescript, Django, Javascript, HTML, Object Oriented Programming</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Test Python Developer</t>
+          <t>Python Developer</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HUSYS CONSULTING LIMITED</t>
+          <t>Peopleplus Professional Services Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2962,24 +2962,24 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-6 </t>
+          <t xml:space="preserve">5-8 </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SIDE, Front end, Web technologies, HP data protector, Consulting, Management, Python, Testing</t>
+          <t>spring boot, orchestration, Web services, SOAP UI, XML, Eclipse, Cloud, JSON</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Trainee Python Developer</t>
+          <t>We are Hiring Immediate joiners - Core Python Developer</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CAP Digisoft Solutions Pvt Ltd</t>
+          <t>Photon Interactive Pvt Ltd</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2989,24 +2989,24 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">5-10 </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CSS, HTML5, deep learning, XML, Python, JSON, Computer science, Web tools</t>
+          <t>verbal, RDBMS, HTML5, debugging, written communication, TFS, object - relational mapper, SQL Server</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Trainee Python Developer</t>
+          <t>Python Developer _ Product Based</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>A T L A S Systems Pvt LTD</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3016,51 +3016,51 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">3-5 </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CSS, HTML5, deep learning, XML, Python, JSON, IT Skills, Machine Learning</t>
+          <t>Rabbitmq, CSS, Front End, Typescript, Django, Javascript, HTML, Object Oriented Programming</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Urgently required Python Developers</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HawksCode</t>
+          <t>MODERNIZE CHIP SOLUTIONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Not disclosed</t>
+          <t>3,00,000 - 5,00,000 PA.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-2 </t>
+          <t xml:space="preserve">0-3 </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>assembly language, Six Sigma, JavaScript, Real Time Operating Systems, .NET, HTML, Oracle, Python</t>
+          <t>IT Skills, Python, Data Structures, OOPS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Python Developers</t>
+          <t>Senior Python Developer - Django</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fleming</t>
+          <t>L A Consultancy</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3070,24 +3070,24 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-1 </t>
+          <t xml:space="preserve">4-6 </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Python, OOPs Concept, Django, Core Python, IT Skills, OOPS, Developer</t>
+          <t>Linux, jQuery, written communication, Django, CSS, HTML, verbal, JavaScript</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior Python Developer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Blueskies HR</t>
+          <t>Quality Engineering Software Technologies Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3097,24 +3097,24 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-4 </t>
+          <t xml:space="preserve">4-6 </t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>IT Skills, Java, Python, Testing, Angularjs, HTML, CSS, Core Java</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Python Developer</t>
+          <t>Senior Python Developer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>V P Placement</t>
+          <t>Loginsoft Pvt Ltd</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3124,39 +3124,2766 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">0-3 </t>
+          <t xml:space="preserve">3-8 </t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CSS, Application programming, Django, MySQL, HTML, Doctor, Python</t>
+          <t>Agile, Python, Redis, Elasticsearch, JSON, Angular, Data Structures, analytical</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Capgemini Technology Services India Limited</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9-12 </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>HTML5, Python Scripting, framework, Mako, JavaScript, Django, ORM, Jinja</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Capgemini Technology Services India Limited</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ORM, Flask, Object Relational Mapper, Django, HTML5, Jinja, Python, Mako</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Lead Python Developer</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CBRE Group</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8-13 </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Css, Software Development, Git, Unit Testing, Front - End, Python Developer, Html, Svn</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Python Backend Developer - Django</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Inmar Intelligence</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-6 </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Python, Python frameworks, FastApi, NoSQL, Pyramid, RDMS, Bash, Git</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Persistent Systems Limited.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Python, IT Skills, Testing, Device Testing, Agile Methodology, Communication Skills, MS SQL, Grid</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Python Developer(IP Networking)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Ltd.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3,00,000 - 8,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-8 </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>IP Networking, Python, communication, Python IP, OOPS, IT Skills, Communication Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Bigshyft Hiring for Contify</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>7,50,000 - 17,50,000 PA.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-6 </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>jQuery, Django, JavaScript, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Prophr Solution</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-8 </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>S3, SQS, MongoDB, No SQL, API gateway, AWS, Python, Cloud Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Isparrow HR Solutions</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-3 </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Amazon Web Services, MySQL, AWS, svn, RESTful APIs, Angular JS, git, Django framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Python Developer - Django/Flask</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Yogy HR Solutions</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-8 </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>DevOps, REST, Github, Django, PostgreSQL, Project Implementation, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Python Developer - Corporate Governance Firm - Mumbai</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SKILLVENTORY</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Software Development, Cloud, AWS, Azure, Django, Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Python Developer - MongoDB/Docker</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Yogy HR Solutions</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-5 </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Testing, Machine Learning, Elastic Search, RESTful API, ElasticSearch, Git</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Python Developer - Django/AWS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>isparrow services Pvt ltd</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>API, MongoDB, REST API, CSS, GIT, PostgreSQL, python, HTML</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>R &amp; Python developer // Tech Mahindra //Immediate Joiner</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Om Careers</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4,00,000 - 9,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-7 </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>HTML5, Oracle, front - end, JavaScript, SQL, CSS3, Responsiveness, R</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Python Developer - Flask/Django Framework</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>HyrEzy Talent Solutions</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Git, Docker, Design Patterns, Django, Python Developer, Database Design, AWS, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Backend Python Developer - Gurgaon</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>OASIS</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>15,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Networking, SVN, Switching, Telecom, Backend, NoSQL, GIT, Docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Corporate Stalwarts</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3,00,000 - 7,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-7 </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Machine Learning, Javascript, Data Structures, Django, Postgresql, MongoDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Python Developer For Gurgaon Immediate joiner</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Om Careers</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5,00,000 - 12,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-5 </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Pyspark, Python, python programming, Hadoop, IT Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Python Developer(pearl)_Looking For immediate joiners</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Adecco India Private Limited</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>15,00,000 - 18,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-8 </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Kubernetes, Python, Azure DevOps, Kafka, ETL, Perl, Angular 2+, React</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Python Developer Product Company</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>LogixGRID Technologies Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Algorithm, HTML 5, Django, data structures, CSS 3, JavaScript, machine learning, test - driven development</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hiring For Python + Microservices Developer</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>GENPACT India Private Limited</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Cloud, Project Management, Angularjs, AWS, Azure, Pyramid</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BIZZ-BUDDY ENTERPRISES PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0-2 </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>GIT, python, IT Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Python with PHP Developer - Backend - IT Product Development</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>InOptra Digital Private Limited</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>15,00,000 - 25,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8-13 </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>GCP Cloud, Restful API, PHP, Impala, Fullstack, communication, Hadoop, Flask</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Python IOT Developer</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>EVERSERVE CONSULTANTS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-7 </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>IOT, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Seclore Technology Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Software Development, Testing, Cloud, DevOps, Jenkins, aws</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ContactPoint 360</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-3 </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Ux, Django, Python Developer, Computer Science, React Js, End User, Side Logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Python Developer - Flask/Django/PostgreSQL</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EchoIndia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>REST API, Git, Django, PostgreSQL, Continuous Integration, MySQL, Python, Flask</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Urgent Hiring// Python Developer// Noida/ Gurgaon// ValueCoders</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Vinove Software and Services India</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>5,00,000 - 15,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Machine Learning, Cloud, DevOps, Jenkins, AWS, Linux Administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Python Developer - Django/Flask/Javascript</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CarbyneTech India</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7-12 </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>TFS, SVN, Python web framework, Django, Object Relational Mapper, HTML5, Javascript, ORM</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Python Developer - European firm in SmartCity</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>LiteBreeze Infotech</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Python, ORM, NoSQL, Object Relational Mapper, Trello, Javascript, JSON, Shell scripting</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>On Demand Agility Software Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>NLP, Excel Powerpoint, Data Analysis, Go, Data Extraction, Numpy, Analytics, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Urgent opening For Python Developers</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>LearningMate Solutions Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Flask, object - oriented, programming, SVN, Design Patterns, written communication, Django, Git</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Python Developer - European firm in Trivandrum</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>LITE BREEZE INFOTECH PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Javascript, Shell scripting, web2py, REST, JSON, Trello, Jira, NoSQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Forgeahead Solutions Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10-14 </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Rest, Django, Python Developer, Javascript, Backbone Js, Jquery, Web Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Zestgeek Solutions</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-3 </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>CSS3, JavaScript, data scraping, front - end technologies, MongoDB, MySQL, Git, Django</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Synergy Technology Services Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Git, ORM, Microservices, Flask, SVN}, Django, Python, Life Cycle</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Incentius</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Data Science, Machine Learning, Artificial Intelligence, Cloud, AWS, Spicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Python Developer Flask</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Expert Web Worx Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-4 </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>HTTPx, AngularJS, VueJS, REST API, Amazon Web Services, AWS, CD, JS framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Python Developers</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Tetrasoft India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-7 </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>CI / CD, algorithms, Chef, SQL Server, Data Bricks, analytical, Python, data analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Python Developers</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Tetrasoft India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-8 </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Bamboo, Shell Scripting, Github, Chef, Jenkis, Python, IT Skills, Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>WHIZDOTAI INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Data Structures, SQL Scripting, Python, IT Skills, Java, Software Development, Machine Learning, Cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>CP360 INDIA Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4,00,000 - 7,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Front End, UX, Data Wrangling, Cloud Services, Django, Javascript, Programming, Devops</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Python Developer (Django)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Unified Lead Solutions</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-7 </t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Javascript, Front End, GIT, Accessibility, Django, Html5</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Python Developer - Django/Flask</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Zapbuild Technologies</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-5 </t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Angular.js, NoSQL, RDBMS, Django, OOPS, Node.js, Python, Flask</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Hurix Systems Private Limited</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>7,00,000 - 10,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-6 </t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Python, Django, Flask, IT Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Python Developer - Immediate Openings</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ideyaLabs</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Pyramid, REST API, Django, Python Developer, Javascript, MongoDB, Elastic Search, Angular</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Python Developer Openings</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>AR XTLabs Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3,00,000 - 8,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Django, MongoDB, Python, IT Skills, Testing, Machine Learning, Cloud, DevOps</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Extentia Information Technology Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>.NET, Python, IT Skills, DevOps, Azure, C#, REST API, Git</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Snaphunt</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>6,00,000 - 12,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Flask, ORM, Object Relational Mapper, Django, HTML5, JavaScript, Python, CSS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SoftDEL Systems Private Limited</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-6 </t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Linux, Django, Python, GIT, Containerization, Docker, Cloud Services, CI</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Python developer/Django developer</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Planify Consultancy India Private Limited</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-7 </t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>CSS, Django, Postgresql, Data Structures, MySQL, Database, Bootstrap, HTML</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>API Developer(python, ruby, bash)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7-12 </t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Java, Rest, Front End, Postgresql, XML, Javascript, JSON, API</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Urgently hiring For Python Django Developer</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Adamas Tech consulting</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-8 </t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Front End, GIT, Scalability, Django, Html5, Data Structures, Web Technologies, Javascript</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>R Systems International</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-7 </t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>AZURE, GIT, Regex, EC2, SQL, Python, numpy, communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Chetu</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2,00,000 - 4,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, CSS, Javascript, Django, Continuous Improvement, XHTML, Ajax</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Career Opportunity : Python Developer</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Exponentia Datalabs Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-6 </t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Python, Numpy, coding, Spark, Flask, Shell scripting, analytical, Django</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Career Opportunity : Python Developer</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Exponentia Datalabs Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-6 </t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Python, Spark, Numpy, Unix, Shell scripting, analytical, coding, Django</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>IOTECH DESIGNS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3,00,000 - 5,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>GIT, Unit Testing, Django, MySQL, MongoDB, JSON, HTTP, Postgres</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Zekardo Automotive Solutions</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-7 </t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Django, Python, Responsiveness, Front End, Html5, Javascript, ORM, User Interaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Python Developer(Python scripting, pandas, numpy, scipy) - Chennai</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>satyam</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4,00,000 - 9,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-7 </t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Python, Matplotlib, Scipy, Web Technologies, plotly, Numpy, pandas, fastapi</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Vanilla Networks Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0-2 </t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>performance tuning, JSON, AngularJS, REST, GIT, SOAP, API's, NodeJS</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Vanilla Networks Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0-2 </t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Django framework, JavaScript, API's, performance tuning, SOAP, flask, ReactJS, GIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hiring For Sr Python Developer</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Collabera Services Private Limited</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6-11 </t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Design Principles, Software Product Development, Django, Postgresql, Programming, Code Review, Microservices, Flask</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Senior Python Developer</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>BEO Software Private Limited</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>object - oriented programming, REST, SQL, Python, HTTP, communication, Django, IT Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Senior Python Developer 7+ years experience</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ZEALOGICS IT SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>NumPy, Object - Oriented Programming, Data Analysis, Python, Tkinter, Socket Programming, PyQt, TCP / IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Senior Python Developers x 2</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Eagle Genomics Ltd</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>rest, python, github, git, server side, Docker, Linux, Agile</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Senior Python Developer</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LOGICPLUM PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3,50,000 - 8,50,000 PA.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-5 </t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Django, Python, Flask, Scipy, MySQL, MongoDB, Numpy, Scikit-Learn</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Vacancy For a Senior Python developer</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Mangalore Infotech Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-6 </t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Celery, Python, Flask, IT Skills, Cloud, AWS, Azure, Kibana</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Lab49 (ION Group) is looking For Senior Python Developer</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ION Trading India Private Limited</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8-13 </t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>multithreading, machine learning, Consul, Kafka, SQL, Data science, Python, MongoDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Senior Python Developer</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ZAZMIC INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>20,00,000 - 27,50,000 PA.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6-10 </t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Github, Django, Python, UDP, Travis CI, Jenkins, Angular, proxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Sr. Python Developer</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>VOEREIR INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>13,00,000 - 22,50,000 PA.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Kubernetes, Python, ORM, MongoDB, code refactoring, design driven development, Continuous Integration, MySQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Senior Python Developer</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MyLoanCare Ventures Private Limited</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>5,00,000 - 10,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-5 </t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Html5, ORM, Python, IT Skills, Testing, Javascript, Responsiveness, Pyramid</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sr. Python Developer</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Beauto Systems Private Limited</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5,00,000 - 12,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>JIRA, MySQL, Object - Oriented Python, CSS, Relational Databases, HTML5, REST, Bitbucket</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Sr . Python / Django Developer</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Tarams Software Technologies</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Technical Documentation, Rdbms, Django, Javascript, Jquery, Distributed Systems, Angular, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Backend Developer/Senior Developer - Golang/Python</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sensibull</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Python, Flutter, Java, Rust, Go, Golang, SQL, Node JS</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PYTHON Developer</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Mindreamers</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-6 </t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>REST API, Python, Kubernetes, Amazon AWS, MySQL, Postgres, GitHub, Docker</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Virtual Platform C++, Python Developer</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Valuable Consulting</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-8 </t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>IT Skills, Java, Python, AUTOSAR, C++, Virtual Platform, Ethernet, FlexRay</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Python Developer - Microservices Architecture</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>L A Consultancy</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>DASH, Python Programming, microservices, API, Continuous Integration, Data Modeling, TensorFlow, CI / CD</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>HR Logica</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-7 </t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>S3, AWS, MongoDB, API gateway, Cloud Watch, No SQL, Lambda, SQS</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Python Developer - Spark/Django/PostgreSQL</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Rohini IT Consulting LLP</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Data Science, DevOps, AWS, Scalability, Django, Postgresql</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Python Developer - Django Framework (1-5 yrs)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Squareroot Consulting Pvt Ltd.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-5 </t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Data Science, Django, Artificial Intelligence, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Adecco India Private Limited</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>14,00,000 - 15,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-7 </t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Rabbitmq, Pyspark, R, Github, Django, Postgresql, Redis, JIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Python Developer - Django/Flask</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Axcess consultancy services</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-5 </t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>AutoML, Flask, Java, GCP, AWS, Amazon Lookout, Face Recognition, Django</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Immediate Hiring For Python Developer - (Bangalore)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Symphoni HR Private Limited</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-9 </t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Project Management, AWS, BPO, project management, Distribution System, Configuration Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Careernet Technologies Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>8,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-8 </t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Maven, Azure, Git, Jenkins, Python, CI, perl, DevOps</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MAC Consultant</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Django, ORM, Python, Javascript, HTML5, CSS, Mako, Jinja</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Azure scala and Python Developer</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>AKANA SERVICES PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-9 </t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Pyspark, Adf, SCALA, IT Skills, Python, Testing, AWS, Azure</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MAC Consultant</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Django, ORM, Python, Object Relational Mapper, Javascript, HTML5, Flask Framework, Mako</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hiring Python Developers / Lead For Global Investment Management firm</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Skill Ventory</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6-11 </t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>IT Skills, Java, Python, Software Development, Cloud, AWS, Computer Science, Investment Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Net Connect Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>5,00,000 - 10,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-7 </t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Linux, Python, IT Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Immediate opening For Python Developer</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Photon Interactive Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>5,00,000 - 15,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Elastic Search, CSS, Javascript, RPA, Pycharm</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Titan Consultancy</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-8 </t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Computer science, Front end, HP data protector, Testing tools, Django, Debugging, Javascript, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
           <t>Python developer</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>HUSYS CONSULTING LIMITED</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Not disclosed</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0-2 </t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Python</t>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Quality Engineering Software Technologies Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-3 </t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>MS Azure, grafana, Python, IT Skills, Azure, Quest</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>A T L A S Systems Pvt LTD</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Typescript, Angular, Unit testing, API Gateway, Object Oriented Programming, Django, software application development, ELK</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Immediate-Python Developer - Django</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Codingmart Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-4 </t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Scikit, object - relational mapping ( ORM ), sql, Mysql, Artificial Intelligence, Deep Learning, Javascript, MatPlotliNumPyb</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>CGI Information Systems and Management Consultants</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>IT Skills, Python, Testing, HTML, CSS, Javascript, Software testing, Front end</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Vecrear Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>7,00,000 - 17,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Python, IT Skills, CSS, Javascript, Database, HTML</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Core Python Developer</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Morgan Stanley Advantage Services</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3-5 </t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Java Developer, Jenkins, Maven, Software Development, Investment Banking, Flask Framework, Python Developer, Devops</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Lead Python Developer- Django</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Zymr Systems Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6-11 </t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Microservices, SCRUM, Communication, Agile, debugging, NumPy, RESTful API, os</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Python Developer ( Networking)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Introlligent Solutions Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>15,00,000 - 16,00,000 PA.</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-5 </t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>TCP, Networking Protocols, Troubleshooting Skills, Load Balancing, HTML, AWS, Firewall, Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Lead Python Developer- Immediate Joiner</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Zymr Systems Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5-10 </t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>NoSQL, Django, Python, Flask, SQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ICAV Tech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2-7 </t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>AWS, Python, Flask, IT Skills, Java, Testing, Javascript, Software QA</t>
         </is>
       </c>
     </row>
